--- a/Pw.xlsx
+++ b/Pw.xlsx
@@ -15,7 +15,98 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+  <si>
+    <t>LETIZIALARE LANTONE</t>
+  </si>
+  <si>
+    <t>12078505</t>
+  </si>
+  <si>
+    <t>MARTALE VOCI</t>
+  </si>
+  <si>
+    <t>76625148</t>
+  </si>
+  <si>
+    <t>ANUARMANCINI</t>
+  </si>
+  <si>
+    <t>01057730</t>
+  </si>
+  <si>
+    <t>GIORGIAMANCINI</t>
+  </si>
+  <si>
+    <t>90654159</t>
+  </si>
+  <si>
+    <t>ROBERTAMARCINNO'</t>
+  </si>
+  <si>
+    <t>78164897</t>
+  </si>
+  <si>
+    <t>MAYSAMAROUOUI</t>
+  </si>
+  <si>
+    <t>93975774</t>
+  </si>
+  <si>
+    <t>IRENEPASQUINI</t>
+  </si>
+  <si>
+    <t>03876017</t>
+  </si>
+  <si>
+    <t>GIULIOPUCCETTI</t>
+  </si>
+  <si>
+    <t>29675196</t>
+  </si>
+  <si>
+    <t>MICHELERAYME ANGELES</t>
+  </si>
+  <si>
+    <t>64881405</t>
+  </si>
+  <si>
+    <t>DIANA ANDREEARUSU</t>
+  </si>
+  <si>
+    <t>10562237</t>
+  </si>
+  <si>
+    <t>ALFREDOSCALERA</t>
+  </si>
+  <si>
+    <t>82962015</t>
+  </si>
+  <si>
+    <t>NADIA SAIDASIMINA</t>
+  </si>
+  <si>
+    <t>74834064</t>
+  </si>
+  <si>
+    <t>GABRIELETOSTI</t>
+  </si>
+  <si>
+    <t>87667901</t>
+  </si>
+  <si>
+    <t>ANDREAACITO</t>
+  </si>
+  <si>
+    <t>80776387</t>
+  </si>
+  <si>
+    <t>BENEDETTABACI PACI</t>
+  </si>
+  <si>
+    <t>06258526</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -349,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A14:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -357,7 +448,126 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="14" spans="1:2"/>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Pw.xlsx
+++ b/Pw.xlsx
@@ -15,96 +15,162 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
-  <si>
-    <t>LETIZIALARE LANTONE</t>
-  </si>
-  <si>
-    <t>12078505</t>
-  </si>
-  <si>
-    <t>MARTALE VOCI</t>
-  </si>
-  <si>
-    <t>76625148</t>
-  </si>
-  <si>
-    <t>ANUARMANCINI</t>
-  </si>
-  <si>
-    <t>01057730</t>
-  </si>
-  <si>
-    <t>GIORGIAMANCINI</t>
-  </si>
-  <si>
-    <t>90654159</t>
-  </si>
-  <si>
-    <t>ROBERTAMARCINNO'</t>
-  </si>
-  <si>
-    <t>78164897</t>
-  </si>
-  <si>
-    <t>MAYSAMAROUOUI</t>
-  </si>
-  <si>
-    <t>93975774</t>
-  </si>
-  <si>
-    <t>IRENEPASQUINI</t>
-  </si>
-  <si>
-    <t>03876017</t>
-  </si>
-  <si>
-    <t>GIULIOPUCCETTI</t>
-  </si>
-  <si>
-    <t>29675196</t>
-  </si>
-  <si>
-    <t>MICHELERAYME ANGELES</t>
-  </si>
-  <si>
-    <t>64881405</t>
-  </si>
-  <si>
-    <t>DIANA ANDREEARUSU</t>
-  </si>
-  <si>
-    <t>10562237</t>
-  </si>
-  <si>
-    <t>ALFREDOSCALERA</t>
-  </si>
-  <si>
-    <t>82962015</t>
-  </si>
-  <si>
-    <t>NADIA SAIDASIMINA</t>
-  </si>
-  <si>
-    <t>74834064</t>
-  </si>
-  <si>
-    <t>GABRIELETOSTI</t>
-  </si>
-  <si>
-    <t>87667901</t>
-  </si>
-  <si>
-    <t>ANDREAACITO</t>
-  </si>
-  <si>
-    <t>80776387</t>
-  </si>
-  <si>
-    <t>BENEDETTABACI PACI</t>
-  </si>
-  <si>
-    <t>06258526</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+  <si>
+    <t>ALESSANDRABEDINI</t>
+  </si>
+  <si>
+    <t>92038712</t>
+  </si>
+  <si>
+    <t>FRANCESCOBERTOLOTTI</t>
+  </si>
+  <si>
+    <t>64107006</t>
+  </si>
+  <si>
+    <t>LIDIACASINI</t>
+  </si>
+  <si>
+    <t>78091676</t>
+  </si>
+  <si>
+    <t>ANDREACATTERINI</t>
+  </si>
+  <si>
+    <t>23719161</t>
+  </si>
+  <si>
+    <t>LORENZOCECCHINI</t>
+  </si>
+  <si>
+    <t>99623163</t>
+  </si>
+  <si>
+    <t>ALESSIOCERBONI</t>
+  </si>
+  <si>
+    <t>46859546</t>
+  </si>
+  <si>
+    <t>ALICECIPICIANI</t>
+  </si>
+  <si>
+    <t>23519248</t>
+  </si>
+  <si>
+    <t>COSTANZACORNICCHIA</t>
+  </si>
+  <si>
+    <t>08869444</t>
+  </si>
+  <si>
+    <t>GIORGIACRISTOFANI</t>
+  </si>
+  <si>
+    <t>72370929</t>
+  </si>
+  <si>
+    <t>NICOLODUILI</t>
+  </si>
+  <si>
+    <t>23424568</t>
+  </si>
+  <si>
+    <t>LUCAGARGHELLA</t>
+  </si>
+  <si>
+    <t>49269123</t>
+  </si>
+  <si>
+    <t>LUCAGAROFANINI</t>
+  </si>
+  <si>
+    <t>44340278</t>
+  </si>
+  <si>
+    <t>GIULIAGIGLIONI</t>
+  </si>
+  <si>
+    <t>96203542</t>
+  </si>
+  <si>
+    <t>FRANCESCOLOVAGLIO</t>
+  </si>
+  <si>
+    <t>55254296</t>
+  </si>
+  <si>
+    <t>LORENZOLOSPENNATO</t>
+  </si>
+  <si>
+    <t>98362264</t>
+  </si>
+  <si>
+    <t>FEDERICOMANCINELLI</t>
+  </si>
+  <si>
+    <t>81712177</t>
+  </si>
+  <si>
+    <t>GIAMMARCOMARAMIGI</t>
+  </si>
+  <si>
+    <t>67651702</t>
+  </si>
+  <si>
+    <t>MARTINAMOSCATELLI</t>
+  </si>
+  <si>
+    <t>42113623</t>
+  </si>
+  <si>
+    <t>MATTEOPANTI</t>
+  </si>
+  <si>
+    <t>14862785</t>
+  </si>
+  <si>
+    <t>MATILDEPAOLOCCI</t>
+  </si>
+  <si>
+    <t>59974905</t>
+  </si>
+  <si>
+    <t>MARCOPASCOLETTI</t>
+  </si>
+  <si>
+    <t>38340115</t>
+  </si>
+  <si>
+    <t>MARTAPERRELLA</t>
+  </si>
+  <si>
+    <t>30312986</t>
+  </si>
+  <si>
+    <t>SOFIAPRETOLANI</t>
+  </si>
+  <si>
+    <t>67684921</t>
+  </si>
+  <si>
+    <t>LUNARODI</t>
+  </si>
+  <si>
+    <t>20552921</t>
+  </si>
+  <si>
+    <t>LORENZOSERRA</t>
+  </si>
+  <si>
+    <t>89333271</t>
+  </si>
+  <si>
+    <t>LORENZOSUSTA</t>
+  </si>
+  <si>
+    <t>70164835</t>
   </si>
 </sst>
 </file>
@@ -440,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,6 +634,94 @@
         <v>29</v>
       </c>
     </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
